--- a/test.xlsx
+++ b/test.xlsx
@@ -617,22 +617,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7845.99</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Newegg" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Links</t>
   </si>
   <si>
-    <t>One</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -67,6 +64,21 @@
   </si>
   <si>
     <t>http://www.zones.com/site/product/index.html?id=102087270</t>
+  </si>
+  <si>
+    <t>N82E16814487088</t>
+  </si>
+  <si>
+    <t>N82E16834233135</t>
+  </si>
+  <si>
+    <t>https://www.cdw.com/shop/products/Apple-Thunderbolt-to-Gigabit-Ethernet-Adapter-network-adapter/3765317.aspx</t>
+  </si>
+  <si>
+    <t>65SE3B-B</t>
+  </si>
+  <si>
+    <t>See price in cart</t>
   </si>
 </sst>
 </file>
@@ -76,8 +88,16 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,35 +433,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>17.989999999999998</v>
@@ -448,7 +467,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>53.99</v>
@@ -456,7 +475,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>229.99</v>
@@ -464,23 +483,40 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>84.99</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +531,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>35.99</v>
@@ -503,10 +539,18 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>299.99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>35.99</v>
       </c>
     </row>
   </sheetData>
@@ -518,13 +562,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
@@ -534,7 +578,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>179.99</v>
@@ -542,7 +586,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>999</v>
@@ -558,14 +602,14 @@
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>113.99</v>
@@ -573,7 +617,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>64.989999999999995</v>
@@ -586,10 +630,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,15 +643,23 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>549.99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1993.99</v>
       </c>
     </row>
   </sheetData>
@@ -619,23 +671,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>7845.99</v>
